--- a/Guild Digital/Example CHT application/forms/app/iccm_assessment.xlsx
+++ b/Guild Digital/Example CHT application/forms/app/iccm_assessment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -135,25 +135,7 @@
     <t xml:space="preserve">Encourage the VHT to report with honesty under this section</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">select_one </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">select_iccm_sessions_conducted</t>
-    </r>
+    <t xml:space="preserve">select_one select_iccm_sessions_conducted</t>
   </si>
   <si>
     <t xml:space="preserve">iccm_sessions_conducted</t>
@@ -180,46 +162,10 @@
     <t xml:space="preserve">horizontal</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">select_multiple </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">select_iccm_challenge_facing</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">vht_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">iccm_challenge_list</t>
-    </r>
+    <t xml:space="preserve">select_multiple select_iccm_challenge_facing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vht_iccm_challenge_list</t>
   </si>
   <si>
     <t xml:space="preserve">What challenges are you facing?</t>
@@ -258,36 +204,8 @@
     <t xml:space="preserve">If other please type here how it was solved.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">${iccm_solution} = '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">other_solution</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">'
+    <t xml:space="preserve">${iccm_solution} = 'other_solution'
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">group_functionality_follow_up_summary</t>
@@ -359,6 +277,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">iccm_sessions_conducted</t>
     </r>
@@ -395,6 +314,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">vht_iccm_challenge_list</t>
     </r>
@@ -429,6 +349,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">iccm_challenging_situation</t>
     </r>
@@ -444,25 +365,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">s_note_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">vht_challenge_solved</t>
-    </r>
+    <t xml:space="preserve">s_note_vht_challenge_solved</t>
   </si>
   <si>
     <r>
@@ -481,6 +384,7 @@
         <color rgb="FF111111"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">iccm_solution</t>
     </r>
@@ -556,23 +460,7 @@
     <t xml:space="preserve">instrument_use </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Instrument Use</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (mRDT, Thermometer,MUAC Tape)</t>
-    </r>
+    <t xml:space="preserve">Instrument Use (mRDT, Thermometer,MUAC Tape)</t>
   </si>
   <si>
     <t xml:space="preserve">select_iccm_challenging_situation</t>
@@ -662,7 +550,7 @@
     <t xml:space="preserve">path</t>
   </si>
   <si>
-    <t xml:space="preserve">ICCM Assessment  Form</t>
+    <t xml:space="preserve">ICCM Assessment</t>
   </si>
   <si>
     <t xml:space="preserve">iccm_assessment</t>
@@ -681,7 +569,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -731,12 +619,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF111111"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -755,17 +637,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF111111"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -824,7 +695,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -861,19 +732,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -889,27 +756,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -992,7 +855,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1281,7 +1144,7 @@
       <c r="A15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -1339,39 +1202,39 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
+    <row r="17" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
       <c r="AMI17" s="3"/>
       <c r="AMJ17" s="3"/>
     </row>
@@ -1379,13 +1242,13 @@
       <c r="A18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1420,182 +1283,182 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14" t="s">
+      <c r="E21" s="13"/>
+      <c r="F21" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="AME21" s="14"/>
-      <c r="AMF21" s="14"/>
-      <c r="AMG21" s="14"/>
-      <c r="AMH21" s="14"/>
-      <c r="AMI21" s="14"/>
-      <c r="AMJ21" s="14"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="AME21" s="13"/>
+      <c r="AMF21" s="13"/>
+      <c r="AMG21" s="13"/>
+      <c r="AMH21" s="13"/>
+      <c r="AMI21" s="13"/>
+      <c r="AMJ21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14" t="s">
+      <c r="E22" s="13"/>
+      <c r="F22" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="AME22" s="14"/>
-      <c r="AMF22" s="14"/>
-      <c r="AMG22" s="14"/>
-      <c r="AMH22" s="14"/>
-      <c r="AMI22" s="14"/>
-      <c r="AMJ22" s="14"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="AME22" s="13"/>
+      <c r="AMF22" s="13"/>
+      <c r="AMG22" s="13"/>
+      <c r="AMH22" s="13"/>
+      <c r="AMI22" s="13"/>
+      <c r="AMJ22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="AME23" s="15"/>
-      <c r="AMF23" s="15"/>
-      <c r="AMG23" s="15"/>
-      <c r="AMH23" s="15"/>
-      <c r="AMI23" s="15"/>
-      <c r="AMJ23" s="15"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="AME23" s="14"/>
+      <c r="AMF23" s="14"/>
+      <c r="AMG23" s="14"/>
+      <c r="AMH23" s="14"/>
+      <c r="AMI23" s="14"/>
+      <c r="AMJ23" s="14"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14" t="s">
+      <c r="E24" s="13"/>
+      <c r="F24" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="AME24" s="14"/>
-      <c r="AMF24" s="14"/>
-      <c r="AMG24" s="14"/>
-      <c r="AMH24" s="14"/>
-      <c r="AMI24" s="14"/>
-      <c r="AMJ24" s="14"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="AME24" s="13"/>
+      <c r="AMF24" s="13"/>
+      <c r="AMG24" s="13"/>
+      <c r="AMH24" s="13"/>
+      <c r="AMI24" s="13"/>
+      <c r="AMJ24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="15"/>
+      <c r="E25" s="14"/>
       <c r="F25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="AME25" s="15"/>
-      <c r="AMF25" s="15"/>
-      <c r="AMG25" s="15"/>
-      <c r="AMH25" s="15"/>
-      <c r="AMI25" s="15"/>
-      <c r="AMJ25" s="15"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="AME25" s="14"/>
+      <c r="AMF25" s="14"/>
+      <c r="AMG25" s="14"/>
+      <c r="AMH25" s="14"/>
+      <c r="AMI25" s="14"/>
+      <c r="AMJ25" s="14"/>
     </row>
     <row r="26" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
@@ -1604,7 +1467,7 @@
       <c r="B26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>76</v>
       </c>
       <c r="D26" s="1"/>
@@ -1631,7 +1494,7 @@
       <c r="B27" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>78</v>
       </c>
       <c r="D27" s="1"/>
@@ -1658,7 +1521,7 @@
       <c r="B28" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="15" t="s">
         <v>80</v>
       </c>
       <c r="D28" s="1"/>
@@ -1733,9 +1596,9 @@
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.52"/>
@@ -1872,7 +1735,7 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B5" s="2" t="n">
@@ -1906,7 +1769,7 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B6" s="2" t="n">
@@ -1940,7 +1803,7 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B7" s="2" t="n">
@@ -1974,7 +1837,7 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="2" t="n">
@@ -2175,7 +2038,7 @@
       <c r="A14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>96</v>
       </c>
       <c r="C14" s="0" t="s">
@@ -2186,7 +2049,7 @@
       <c r="A15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>98</v>
       </c>
       <c r="C15" s="0" t="s">
@@ -2197,15 +2060,15 @@
       <c r="A16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>102</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2680,88 +2543,88 @@
   </sheetPr>
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="AMJ1" s="21"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="AMJ1" s="19"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="19" t="str">
+      <c r="C2" s="17" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-11-08  13-28</v>
-      </c>
-      <c r="D2" s="19" t="s">
+        <v>2023-11-29  1-10</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="AMJ2" s="21"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="AMJ2" s="19"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
